--- a/Modulo 4 - Mais tópicos de edição e formatação/aula-validacao.xlsx
+++ b/Modulo 4 - Mais tópicos de edição e formatação/aula-validacao.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\04 Mais tópicos de edição e formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Curso Excel\Modulo 4 - Mais tópicos de edição e formatação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="4" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <r>
       <t>G</t>
@@ -123,11 +123,23 @@
   <si>
     <t>COMBUSTÍVEL</t>
   </si>
+  <si>
+    <t>GDG-3387</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Civic EDX</t>
+  </si>
+  <si>
+    <t>Etanol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,7 +558,7 @@
         <xdr:cNvPr id="2" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44425CF-D459-46F4-AEE1-C2BFC99935C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44425CF-D459-46F4-AEE1-C2BFC99935C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -626,7 +638,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A92B70D-1891-489A-AD71-200252118BEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A92B70D-1891-489A-AD71-200252118BEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +715,7 @@
         <xdr:cNvPr id="4" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6F8A99-73EA-47E7-866F-232CE726F0BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6F8A99-73EA-47E7-866F-232CE726F0BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +792,7 @@
         <xdr:cNvPr id="5" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DD6E4B-3605-4BC0-BA76-5BF929399E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DD6E4B-3605-4BC0-BA76-5BF929399E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +869,7 @@
         <xdr:cNvPr id="6" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59861F94-AF37-4415-989D-75866B16F2B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59861F94-AF37-4415-989D-75866B16F2B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,7 +952,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F06A00D-B7F6-4EF2-A9C5-5628A837B16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F06A00D-B7F6-4EF2-A9C5-5628A837B16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1029,7 @@
         <xdr:cNvPr id="3" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67EF430-9BAC-4DC8-8401-0C98D9096FE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67EF430-9BAC-4DC8-8401-0C98D9096FE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1108,7 @@
         <xdr:cNvPr id="4" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E7EC31-1DDE-418E-BD9A-1C7CA40496C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E7EC31-1DDE-418E-BD9A-1C7CA40496C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1185,7 @@
         <xdr:cNvPr id="5" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01964716-4EAB-46C6-96AD-25F64AFD83B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01964716-4EAB-46C6-96AD-25F64AFD83B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1262,7 @@
         <xdr:cNvPr id="6" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B93A7A8-2556-40E8-9001-607F1CA08116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B93A7A8-2556-40E8-9001-607F1CA08116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2084,7 +2096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2184,12 +2198,24 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="34">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -2569,6 +2595,14 @@
     <row r="29" spans="2:15" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor inválido!" error="O modelo do veículo deve possuir no mínimo 5 caracteres" sqref="F5:F27">
+      <formula1>5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor inválido" error="Favor escolher um valor válido na caixa de seleção_x000a_" sqref="H5:H27">
+      <formula1>"Diesel,Etanol,Gasolina,GNV,Flex"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
